--- a/docs/Sprint Score Calculator.xlsx
+++ b/docs/Sprint Score Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feich\Desktop\4BHITM\ITP\EcoHome\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1DB0D-F2DE-4F51-BB8B-042EFA29F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5C716-B6EA-41FB-9B2E-B62100493E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{34AF93F1-9AF1-4121-A685-F6599CDC9750}"/>
   </bookViews>
@@ -132,7 +132,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -160,36 +160,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -526,7 +496,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -569,8 +539,8 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2">
-        <f>SUM(C2 - 200)</f>
-        <v>-200</v>
+        <f>SUM(C2 - (B6 + C6 + D6 + E6))</f>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -642,17 +612,21 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
+      <c r="I6" t="str">
+        <f>SUM(I2:I5) &amp; " %"</f>
+        <v>0 %</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:L6" si="1">SUM(J2:J5) &amp; " %"</f>
+        <v>0 %</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>0 %</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>0 %</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -682,13 +656,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>$C$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$C$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Sprint Score Calculator.xlsx
+++ b/docs/Sprint Score Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feich\Desktop\4BHITM\ITP\EcoHome\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5C716-B6EA-41FB-9B2E-B62100493E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6040774-D069-4A39-86EE-948C29970802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{34AF93F1-9AF1-4121-A685-F6599CDC9750}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Punkte</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Sebastian</t>
   </si>
   <si>
-    <t>Punkte ings.</t>
-  </si>
-  <si>
     <t>Durchschnitt</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Einsch. 4 (%)</t>
+  </si>
+  <si>
+    <t>Punkte final</t>
+  </si>
+  <si>
+    <t>Punkte insg.</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -165,6 +208,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174740E1-F2DD-4185-8889-129F41AAE62F}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -515,19 +563,19 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -612,6 +660,10 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="I6" t="str">
         <f>SUM(I2:I5) &amp; " %"</f>
         <v>0 %</v>
@@ -631,7 +683,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="e">
         <f>SUM(B6 + (D2 * (M2 / 100)))</f>
@@ -654,15 +706,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8">
+        <f>SUM(B8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F7:F8">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>$C$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>$C$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
